--- a/Interview/常用时间和空间复杂度.xlsx
+++ b/Interview/常用时间和空间复杂度.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="常用数据结构" sheetId="1" r:id="rId1"/>
-    <sheet name="排序算法" sheetId="2" r:id="rId2"/>
+    <sheet name="常规约定" sheetId="3" r:id="rId1"/>
+    <sheet name="常用数据结构" sheetId="1" r:id="rId2"/>
+    <sheet name="排序算法" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>Array</t>
   </si>
@@ -220,6 +221,44 @@
   </si>
   <si>
     <t>最差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Θ</t>
+  </si>
+  <si>
+    <t>Ο</t>
+  </si>
+  <si>
+    <t>ο</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>既是上界也是下界，等于的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示上界，小于等于的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示上界，小于的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示下界，大于等于的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示下界，大于的意思。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,12 +342,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,6 +353,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,9 +664,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -640,530 +745,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="1"/>
@@ -1211,12 +1316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1225,255 +1330,255 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
